--- a/Analysis/analysis_01視窗版/OUTPUT.xlsx
+++ b/Analysis/analysis_01視窗版/OUTPUT.xlsx
@@ -9,6 +9,7 @@
     <sheet name="24012_B_AH" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="24012_C_AK" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="OUTPUT" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="OUTPUT1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1901,7 +1902,7 @@
     <xf borderId="0" fillId="0" fontId="42" numFmtId="226"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="42" numFmtId="226"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="204"/>
     <xf borderId="0" fillId="0" fontId="42" numFmtId="226"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
@@ -2276,52 +2277,52 @@
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="48" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="48" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="169"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
@@ -2329,126 +2330,126 @@
     <xf borderId="0" fillId="0" fontId="50" numFmtId="169"/>
     <xf borderId="0" fillId="0" fontId="50" numFmtId="169"/>
     <xf borderId="0" fillId="0" fontId="50" numFmtId="169"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="50" numFmtId="169"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="50" numFmtId="169"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="50" numFmtId="169"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="50" numFmtId="169"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="52" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="52" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="53" numFmtId="227"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="177"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="173"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="54" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
@@ -2543,14 +2544,14 @@
     <xf borderId="0" fillId="0" fontId="53" numFmtId="224"/>
     <xf borderId="0" fillId="0" fontId="31" numFmtId="247"/>
     <xf borderId="0" fillId="0" fontId="55" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="41"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="56" numFmtId="189"/>
     <xf borderId="0" fillId="0" fontId="57" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="57" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
@@ -3298,8 +3299,8 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="238"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="41"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="53" numFmtId="227"/>
     <xf borderId="0" fillId="0" fontId="53" numFmtId="227"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="225"/>
@@ -4031,10 +4032,10 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="170"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="170"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="170"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="42"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="177"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="177"/>
     <xf borderId="16" fillId="0" fontId="53" numFmtId="0"/>
@@ -4044,7 +4045,7 @@
     <xf borderId="0" fillId="0" fontId="65" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="51" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="66" numFmtId="0"/>
-    <xf borderId="14" fillId="0" fontId="67" numFmtId="41"/>
+    <xf borderId="14" fillId="0" fontId="67" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="68" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="266"/>
     <xf borderId="17" fillId="0" fontId="9" numFmtId="274"/>
@@ -4100,7 +4101,7 @@
     <xf borderId="0" fillId="0" fontId="41" numFmtId="209"/>
     <xf borderId="0" fillId="0" fontId="74" numFmtId="232"/>
     <xf borderId="0" fillId="0" fontId="72" numFmtId="232"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="220"/>
     <xf borderId="0" fillId="0" fontId="75" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="195"/>
@@ -4140,12 +4141,12 @@
     <xf borderId="0" fillId="0" fontId="53" numFmtId="250"/>
     <xf borderId="0" fillId="0" fontId="53" numFmtId="250"/>
     <xf borderId="0" fillId="0" fontId="53" numFmtId="250"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="53" numFmtId="250"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="53" numFmtId="250"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="222"/>
     <xf borderId="10" fillId="20" fontId="31" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="40" numFmtId="0"/>
@@ -4159,22 +4160,22 @@
     <xf borderId="0" fillId="0" fontId="46" numFmtId="197"/>
     <xf borderId="0" fillId="0" fontId="88" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="41"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="190"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="194"/>
     <xf borderId="23" fillId="0" fontId="89" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="177"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="193"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="177"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="177"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="177"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="177"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="253"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="254"/>
@@ -4189,7 +4190,7 @@
     <xf borderId="24" fillId="21" fontId="33" numFmtId="0"/>
     <xf borderId="20" fillId="0" fontId="31" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="91" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="91" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="92" numFmtId="0"/>
@@ -4258,20 +4259,20 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="177"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="222"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="196"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="186"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="107" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="108" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="205"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="206"/>
     <xf borderId="0" fillId="0" fontId="72" numFmtId="225"/>
     <xf borderId="0" fillId="0" fontId="109" numFmtId="237"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="234"/>
     <xf borderId="0" fillId="0" fontId="74" numFmtId="225"/>
-    <xf borderId="0" fillId="0" fontId="48" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="48" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="173"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="174"/>
     <xf borderId="0" fillId="0" fontId="41" numFmtId="174"/>
@@ -4458,8 +4459,8 @@
     <xf borderId="0" fillId="0" fontId="66" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="113" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="113" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="43"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="93" numFmtId="251"/>
     <xf borderId="0" fillId="0" fontId="53" numFmtId="250"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
@@ -4467,7 +4468,7 @@
     <xf borderId="0" fillId="0" fontId="114" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="35" numFmtId="173"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="177"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="59" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="36" numFmtId="0"/>
@@ -9595,4 +9596,653 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="18" width="12"/>
+    <col customWidth="1" max="2" min="2" style="18" width="18"/>
+    <col customWidth="1" max="4" min="4" style="18" width="12"/>
+    <col customWidth="1" max="5" min="5" style="18" width="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>